--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29670" windowHeight="12060"/>
+    <workbookView windowWidth="29670" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1076,13 +1077,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="B4:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="15.575" customWidth="1"/>
@@ -1181,51 +1182,68 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="2:5">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>